--- a/Resource/excel/R-任务-任务配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/R-任务-任务配置-(框架定义,策划填写).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>完成条件</t>
   </si>
@@ -258,6 +258,22 @@
   </si>
   <si>
     <t>Execute(string)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡2次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡(初级)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡5次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡(普通)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +354,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -402,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -437,6 +461,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -806,13 +831,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -934,6 +959,90 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10001</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>10101</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10002</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>10201</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10003</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10004</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10005</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10006</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
@@ -947,7 +1056,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="119" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resource/excel/R-任务-任务配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/R-任务-任务配置-(框架定义,策划填写).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -837,7 +837,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Resource/excel/R-任务-任务配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/R-任务-任务配置-(框架定义,策划填写).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>完成条件</t>
   </si>
@@ -261,19 +261,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>完成关卡2次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成关卡(初级)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>完成关卡5次</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>完成关卡1次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡10次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>完成关卡(普通)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡(简单)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡(困难)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -293,12 +301,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -837,7 +847,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -973,10 +983,10 @@
         <v>10101</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -990,13 +1000,13 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>10201</v>
+        <v>10102</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1009,11 +1019,17 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="E7">
+        <v>10103</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>10004</v>
-      </c>
       <c r="B8">
         <v>3</v>
       </c>
@@ -1022,9 +1038,6 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>10005</v>
-      </c>
       <c r="B9">
         <v>3</v>
       </c>
@@ -1033,9 +1046,6 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10006</v>
-      </c>
       <c r="B10">
         <v>3</v>
       </c>

--- a/Resource/excel/R-任务-任务配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/R-任务-任务配置-(框架定义,策划填写).xlsx
@@ -841,13 +841,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1027,30 +1027,6 @@
       </c>
       <c r="H7" s="5" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/excel/R-任务-任务配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/R-任务-任务配置-(框架定义,策划填写).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="2" shapeId="0">
+    <comment ref="D4" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="2" shapeId="0">
+    <comment ref="E4" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="2" shapeId="0">
+    <comment ref="F4" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>完成条件</t>
   </si>
@@ -282,6 +282,14 @@
   </si>
   <si>
     <t>完成关卡(困难)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality(int)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -841,28 +849,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8:C10"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -875,14 +883,14 @@
       <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="9"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -890,28 +898,31 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>3</v>
       </c>
@@ -924,14 +935,14 @@
       <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2</v>
       </c>
       <c r="H3" s="5">
         <v>2</v>
@@ -939,8 +950,11 @@
       <c r="I3" s="5">
         <v>2</v>
       </c>
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -948,90 +962,93 @@
         <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10001</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>10101</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10002</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>10102</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10003</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>10103</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C4">
+  <conditionalFormatting sqref="D2:D4">
     <cfRule type="duplicateValues" dxfId="3" priority="116" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A4">
